--- a/Budget/BudgetOverview.xlsx
+++ b/Budget/BudgetOverview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23780" yWindow="3500" windowWidth="23540" windowHeight="23300" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="440" windowWidth="32640" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -69,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +79,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -106,9 +113,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -390,217 +398,222 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="1" t="str">
         <f>CONCATENATE("Total: $", SUM(E5:E75))</f>
-        <v>Total: $2885000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>Total: $2345000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>9000</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <f>B5*C5*D5</f>
-        <v>540000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>30000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f>C5</f>
         <v>30</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f>D5</f>
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f>B6*C6*D6</f>
         <v>1800000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f>B7*C7*D7</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>300000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f>B8</f>
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>25000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <f>B9*D9</f>
         <v>125000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>30</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <f>B10*C10*D10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="1"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Budget/BudgetOverview.xlsx
+++ b/Budget/BudgetOverview.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Budget</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Internship costs</t>
+  </si>
+  <si>
+    <t>Summer salary</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -433,7 +436,7 @@
       </c>
       <c r="E4" s="1" t="str">
         <f>CONCATENATE("Total: $", SUM(E5:E75))</f>
-        <v>Total: $2345000</v>
+        <v>Total: $1451665</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -444,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -462,8 +465,7 @@
         <v>30000</v>
       </c>
       <c r="C6" s="1">
-        <f>C5</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <f>D5</f>
@@ -471,7 +473,7 @@
       </c>
       <c r="E6" s="2">
         <f>B6*C6*D6</f>
-        <v>1800000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -482,14 +484,15 @@
         <v>2000</v>
       </c>
       <c r="C7" s="1">
-        <v>30</v>
+        <f>C6</f>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="2">
         <f>B7*C7*D7</f>
-        <v>120000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -509,14 +512,14 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="2">
         <f>B9*D9</f>
-        <v>125000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -527,7 +530,8 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>30</v>
+        <f>C7</f>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -538,7 +542,20 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <f>ROUND(75000/9,0)</f>
+        <v>8333</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <f>B11*D11</f>
+        <v>41665</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E12" s="2"/>

--- a/Budget/BudgetOverview.xlsx
+++ b/Budget/BudgetOverview.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Budget</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>Summer salary</t>
+  </si>
+  <si>
+    <t>Add two percent raise per year</t>
+  </si>
+  <si>
+    <t>Should go up by ~20% per year</t>
+  </si>
+  <si>
+    <t>Maybe 8% is more reasonable</t>
+  </si>
+  <si>
+    <t>Half time coordinator: what will they be doing. 33% fringe</t>
+  </si>
+  <si>
+    <t>Maybe money for Meg, too</t>
+  </si>
+  <si>
+    <t>Travel to NSF,  recruiting weekend, going to SACNAS</t>
   </si>
 </sst>
 </file>
@@ -398,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -414,17 +432,17 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -436,15 +454,16 @@
       </c>
       <c r="E4" s="1" t="str">
         <f>CONCATENATE("Total: $", SUM(E5:E75))</f>
-        <v>Total: $1451665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Total: $1902985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <f>2*5522</f>
+        <v>11044</v>
       </c>
       <c r="C5" s="1">
         <v>15</v>
@@ -454,15 +473,15 @@
       </c>
       <c r="E5" s="2">
         <f>B5*C5*D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>331320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
@@ -473,10 +492,13 @@
       </c>
       <c r="E6" s="2">
         <f>B6*C6*D6</f>
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1020000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -494,8 +516,11 @@
         <f>B7*C7*D7</f>
         <v>60000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -506,8 +531,11 @@
         <f>B8</f>
         <v>300000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -521,8 +549,11 @@
         <f>B9*D9</f>
         <v>150000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -541,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -556,20 +587,26 @@
         <f>B11*D11</f>
         <v>41665</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.35">
